--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/a-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/a-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8324493333333334</v>
+        <v>1.011219333333333</v>
       </c>
       <c r="N2">
-        <v>2.497348</v>
+        <v>3.033658</v>
       </c>
       <c r="O2">
-        <v>0.1902770762854465</v>
+        <v>0.1971977600385235</v>
       </c>
       <c r="P2">
-        <v>0.1902770762854465</v>
+        <v>0.1971977600385236</v>
       </c>
       <c r="Q2">
-        <v>0.09646866847644446</v>
+        <v>0.1171854895164444</v>
       </c>
       <c r="R2">
-        <v>0.8682180162880001</v>
+        <v>1.054669405648</v>
       </c>
       <c r="S2">
-        <v>0.1902770762854465</v>
+        <v>0.1971977600385235</v>
       </c>
       <c r="T2">
-        <v>0.1902770762854465</v>
+        <v>0.1971977600385236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.237666</v>
+        <v>3.237665999999999</v>
       </c>
       <c r="N3">
-        <v>9.712998000000001</v>
+        <v>9.712997999999999</v>
       </c>
       <c r="O3">
-        <v>0.7400493889543587</v>
+        <v>0.6313768555515021</v>
       </c>
       <c r="P3">
-        <v>0.7400493889543587</v>
+        <v>0.6313768555515022</v>
       </c>
       <c r="Q3">
-        <v>0.3751980036320001</v>
+        <v>0.375198003632</v>
       </c>
       <c r="R3">
         <v>3.376782032688</v>
       </c>
       <c r="S3">
-        <v>0.7400493889543587</v>
+        <v>0.6313768555515021</v>
       </c>
       <c r="T3">
-        <v>0.7400493889543587</v>
+        <v>0.6313768555515022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,34 +673,96 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.304817</v>
+        <v>0.7485606666666667</v>
       </c>
       <c r="N4">
-        <v>0.914451</v>
+        <v>2.245682</v>
       </c>
       <c r="O4">
-        <v>0.06967353476019476</v>
+        <v>0.1459767251808977</v>
       </c>
       <c r="P4">
-        <v>0.06967353476019476</v>
+        <v>0.1459767251808977</v>
       </c>
       <c r="Q4">
-        <v>0.03532381965066667</v>
+        <v>0.08674720237688889</v>
       </c>
       <c r="R4">
-        <v>0.317914376856</v>
+        <v>0.7807248213920001</v>
       </c>
       <c r="S4">
-        <v>0.06967353476019476</v>
+        <v>0.1459767251808977</v>
       </c>
       <c r="T4">
-        <v>0.06967353476019476</v>
+        <v>0.1459767251808977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1158853333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.347656</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1304993333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.391498</v>
+      </c>
+      <c r="O5">
+        <v>0.02544865922907654</v>
+      </c>
+      <c r="P5">
+        <v>0.02544865922907655</v>
+      </c>
+      <c r="Q5">
+        <v>0.01512295874311111</v>
+      </c>
+      <c r="R5">
+        <v>0.136106628688</v>
+      </c>
+      <c r="S5">
+        <v>0.02544865922907654</v>
+      </c>
+      <c r="T5">
+        <v>0.02544865922907655</v>
       </c>
     </row>
   </sheetData>
